--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,37 +22,55 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>005646</t>
+  </si>
+  <si>
     <t>002214</t>
   </si>
   <si>
-    <t>005646</t>
+    <t>中海沪港深多策略灵活配置混合</t>
   </si>
   <si>
     <t>中海沪港深价值优选灵活配置混合</t>
   </si>
   <si>
-    <t>中海沪港深多策略灵活配置混合</t>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>80.75</t>
   </si>
   <si>
     <t>81.24</t>
   </si>
   <si>
-    <t>80.75</t>
+    <t>4.18</t>
   </si>
   <si>
     <t>3.90</t>
   </si>
   <si>
-    <t>4.18</t>
+    <t>0.1379</t>
+  </si>
+  <si>
+    <t>0.0296</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005646</t>
-  </si>
-  <si>
-    <t>002214</t>
-  </si>
-  <si>
-    <t>中海沪港深多策略灵活配置混合</t>
-  </si>
-  <si>
-    <t>中海沪港深价值优选灵活配置混合</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>80.75</t>
-  </si>
-  <si>
-    <t>81.24</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>0.1379</t>
-  </si>
-  <si>
-    <t>0.0296</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4823</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,892 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1604</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1862,4 +1863,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1871,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1882,17 +1883,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1902,14 +1923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.53</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1918,14 +1961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.51</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1934,13 +1999,1541 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1000</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4620</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3448,7 +3449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3459,17 +3460,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3479,14 +3500,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.94</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3495,14 +3538,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.53</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3511,14 +3576,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.51</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3527,13 +3614,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2092</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1903</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4683,7 +4684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4694,17 +4695,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4714,14 +4735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.29</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4730,14 +4773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.94</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4746,14 +4811,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.53</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4762,14 +4849,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.51</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5259</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4778,13 +4887,1991 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4444</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="D6" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.52</t>
+          <t>39.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.35</t>
+          <t>71.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4823</t>
+          <t>3.3444</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010592</t>
+          <t>501207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方医药创新股票A</t>
+          <t>华夏创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>63.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.32</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8867</t>
+          <t>3.1565</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010847</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合C</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>28.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.35</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5072</t>
+          <t>2.6722</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>博时恒生医疗保健ETF（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>60.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2579</t>
+          <t>2.5259</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010593</t>
+          <t>014591</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方医药创新股票C</t>
+          <t>广发瑞誉一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>37.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>54.32</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2460</t>
+          <t>2.5230</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>60.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.45</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>1.9494</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>010592</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>南方医药创新股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>89.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0367</t>
+          <t>1.4444</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -905,17 +905,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -925,16 +925,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>1.1313</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +943,1708 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>007349</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>华夏科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.30</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.7887</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +2658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +2679,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1037,36 +2709,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.84</t>
+          <t>38.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.14</t>
+          <t>67.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0209</t>
+          <t>2.8645</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1075,36 +2747,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.39</t>
+          <t>26.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5601</t>
+          <t>2.2343</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1113,36 +2785,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005453</t>
+          <t>501207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合A</t>
+          <t>华夏创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>67.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>84.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4926</t>
+          <t>2.0054</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1151,36 +2823,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>014591</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>广发瑞誉一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>38.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1604</t>
+          <t>1.7756</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1189,36 +2861,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005454</t>
+          <t>010592</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合C</t>
+          <t>南方医药创新股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.77</t>
+          <t>23.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6838</t>
+          <t>1.2092</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1227,36 +2899,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010847</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合C</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>64.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.14</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4067</t>
+          <t>1.1903</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1265,36 +2937,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>17.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2838</t>
+          <t>1.0517</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1303,36 +2975,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001518</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家瑞兴灵活配置混合</t>
+          <t>博时恒生医疗保健ETF（QDII）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>98.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1661</t>
+          <t>0.9223</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1341,36 +3013,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>007349</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>华夏科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.5047</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1379,36 +3051,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>010593</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>南方医药创新股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.4194</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1417,36 +3089,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011601</t>
+          <t>008546</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源公共卫生主题精选股票A</t>
+          <t>南方产业优势两年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>74.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1292</t>
+          <t>0.3736</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1455,36 +3127,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时恒生医疗保健ETF（QDII）</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.55</t>
+          <t>67.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0936</t>
+          <t>0.3234</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1493,36 +3165,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>010847</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>南方卓越优选3个月持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.2938</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1531,36 +3203,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>014592</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>广发瑞誉一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.1877</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1569,36 +3241,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011602</t>
+          <t>009152</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源公共卫生主题精选股票C</t>
+          <t>南方瑞盛三年持有期混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>77.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.1821</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1607,36 +3279,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>014114</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>广发沪港深医药混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.1791</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1645,36 +3317,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.31</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.1020</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1683,36 +3355,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>860008</t>
+          <t>513700</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1721,36 +3393,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>159892</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0652</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1759,36 +3431,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>470888</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>汇添富香港优势精选混合 (QDII)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>67.74</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0638</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1797,34 +3469,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>860060</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1833,34 +3507,378 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>860061</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +5468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,7 +5489,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3501,36 +5519,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.71</t>
+          <t>36.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.08</t>
+          <t>82.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8645</t>
+          <t>3.0209</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3539,36 +5557,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.01</t>
+          <t>56.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2343</t>
+          <t>2.5601</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3577,36 +5595,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501207</t>
+          <t>005453</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏创新未来18个月封闭运作混合A</t>
+          <t>前海开源医疗健康灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67.75</t>
+          <t>25.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.92</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0054</t>
+          <t>1.4926</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3615,36 +5633,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014591</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合A</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.60</t>
+          <t>25.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7756</t>
+          <t>1.1604</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3653,36 +5671,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010592</t>
+          <t>005454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方医药创新股票A</t>
+          <t>前海开源医疗健康灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.21</t>
+          <t>11.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2092</t>
+          <t>0.6838</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3691,36 +5709,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>010847</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>南方卓越优选3个月持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>82.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1903</t>
+          <t>0.4067</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3729,36 +5747,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0517</t>
+          <t>0.2838</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3767,36 +5785,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>001518</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时恒生医疗保健ETF（QDII）</t>
+          <t>万家瑞兴灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9223</t>
+          <t>0.1661</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3805,36 +5823,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007349</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏科技创新混合A</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5047</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3843,36 +5861,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010593</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方医药创新股票C</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4194</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3881,36 +5899,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008546</t>
+          <t>011601</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合A</t>
+          <t>前海开源公共卫生主题精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3736</t>
+          <t>0.1292</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -3919,36 +5937,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
+          <t>博时恒生医疗保健ETF（QDII）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67.08</t>
+          <t>99.55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3234</t>
+          <t>0.0936</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3957,36 +5975,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010847</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合C</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2938</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3995,36 +6013,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014592</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合C</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.0558</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -4033,36 +6051,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009152</t>
+          <t>011602</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方瑞盛三年持有期混合A</t>
+          <t>前海开源公共卫生主题精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.05</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1821</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -4071,36 +6089,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>014114</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发沪港深医药混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>83.35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1791</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -4109,36 +6127,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>80.31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1020</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -4147,36 +6165,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>513700</t>
+          <t>860008</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0907</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -4185,36 +6203,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>159892</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>83.35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0652</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -4223,36 +6241,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>67.74</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0638</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -4261,36 +6279,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>860060</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华商医药医疗行业股票</t>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -4299,378 +6315,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>014115</t>
+          <t>860061</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发沪港深医药混合C</t>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>90.76</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009781</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方产业优势两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007350</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>860008</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009153</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方瑞盛三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>77.05</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>860060</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>860061</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +6356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4705,7 +6377,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4735,32 +6407,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.07</t>
+          <t>45.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>76.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3444</t>
+          <t>3.4823</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4773,32 +6445,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501207</t>
+          <t>010592</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏创新未来18个月封闭运作混合A</t>
+          <t>南方医药创新股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.64</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>54.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1565</t>
+          <t>0.8867</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4811,36 +6483,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>010847</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>南方卓越优选3个月持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>76.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.6722</t>
+          <t>0.5072</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4849,36 +6521,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时恒生医疗保健ETF（QDII）</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.14</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.5259</t>
+          <t>0.2579</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4887,36 +6559,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014591</t>
+          <t>010593</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合A</t>
+          <t>南方医药创新股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>54.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.5230</t>
+          <t>0.2460</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4925,36 +6597,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.54</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>81.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.9494</t>
+          <t>0.0630</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4963,36 +6635,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010592</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方医药创新股票A</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.4444</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -5001,17 +6673,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5021,16 +6693,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.1313</t>
+          <t>0.0248</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -5039,1708 +6711,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007349</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏科技创新混合A</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16.57</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>80.30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7887</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010387</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6908</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008546</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方产业优势两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>27.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5268</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010593</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方医药创新股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5050</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010518</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏先锋科技一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4282</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011344</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4099</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009665</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>71.43</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3732</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010106</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3708</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010847</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3493</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014592</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发瑞誉一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2986</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009152</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方瑞盛三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2563</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008359</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华安医疗创新混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>014114</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发沪港深医药混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1766</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>862012</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1580</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>862001</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1580</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>862011</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1580</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010388</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1475</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008107</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商医药医疗行业股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.73</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1290</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007718</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010519</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华夏先锋科技一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>72.67</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>513700</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1021</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009598</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>159892</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>013483</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华安医疗创新混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>014115</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发沪港深医药混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010107</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011969</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>建信港股通精选混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>83.50</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009781</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>南方产业优势两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007350</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005914</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>景顺长城智能生活混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>860008</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009153</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>南方瑞盛三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>011970</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>建信港股通精选混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>83.50</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>860060</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>011345</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>90.00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>860061</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6754,128 +6754,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.09</v>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>26.09</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>16.29</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>22.94</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>10.53</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>5.51</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -583,6 +600,2304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2931</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2652,7 +4967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3886,7 +6201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5462,7 +7777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6350,7 +8665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6748,7 +9063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
+++ b/数据整理/stocks/港股/01548-金斯瑞生物科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>15.57</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>26.09</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>16.29</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>22.94</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>10.53</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>5.51</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,3290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银瑞思</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7390</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012188</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012189</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安优势龙头混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>017627</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2897,7 +6198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4967,7 +8268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6201,7 +9502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7777,7 +11078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8665,7 +11966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9063,7 +12364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
